--- a/clean_data_lettuce_pheno.xlsx
+++ b/clean_data_lettuce_pheno.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuaoyekanmi/Documents/workshop2024_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DCF8CEF-E5A4-874D-9B42-74E343E3EDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF7960-262B-6848-9BCD-68AF624202E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2620" windowWidth="27640" windowHeight="16940" xr2:uid="{5B03316F-81E4-B144-86B6-BE4912B28367}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{5B03316F-81E4-B144-86B6-BE4912B28367}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="372">
   <si>
     <t>Plant_NO</t>
   </si>
@@ -1131,13 +1132,34 @@
   </si>
   <si>
     <t>Fresh_Root_After_Clip (g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expectations: </t>
+  </si>
+  <si>
+    <t>Explore Genotypic Effects on Biomass Accumulation:</t>
+  </si>
+  <si>
+    <t>Investigate which genotypes lead to higher fresh or dry leaf and root biomass using ANOVA or regression models.</t>
+  </si>
+  <si>
+    <t>Test Correlations Between Leaf and Root Biomass:</t>
+  </si>
+  <si>
+    <t>Analyze the relationship between fresh leaf and root biomass to identify whether larger leaves correspond to larger roots.</t>
+  </si>
+  <si>
+    <t>Investigate Soil-Biomass Relationships:</t>
+  </si>
+  <si>
+    <t>Analyze the effect of soil (e.g., dry core or fine soil) on plant biomass production, testing for interactions between soil and plant components.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1187,8 +1209,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1198,6 +1227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1241,6 +1276,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1580,13 +1622,13 @@
   <dimension ref="A1:S297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
@@ -14613,34 +14655,34 @@
       <c r="R241" s="3"/>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A242" s="3">
+      <c r="A242" s="12">
         <v>241</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C242" s="3">
+      <c r="C242" s="12">
         <v>6</v>
       </c>
-      <c r="D242" s="3">
+      <c r="D242" s="12">
         <v>1123</v>
       </c>
-      <c r="E242" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F242" s="3" t="s">
+      <c r="E242" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F242" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G242" s="3">
+      <c r="G242" s="12">
         <v>737</v>
       </c>
-      <c r="H242" s="3">
+      <c r="H242" s="12">
         <v>62</v>
       </c>
-      <c r="I242" s="3">
+      <c r="I242" s="12">
         <v>61</v>
       </c>
-      <c r="J242" s="3">
+      <c r="J242" s="12">
         <v>17</v>
       </c>
       <c r="K242" s="3">
@@ -14667,34 +14709,34 @@
       <c r="R242" s="3"/>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A243" s="3">
+      <c r="A243" s="12">
         <v>242</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C243" s="3">
+      <c r="C243" s="12">
         <v>42</v>
       </c>
-      <c r="D243" s="3">
+      <c r="D243" s="12">
         <v>1124</v>
       </c>
-      <c r="E243" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F243" s="3" t="s">
+      <c r="E243" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F243" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="G243" s="3">
+      <c r="G243" s="12">
         <v>368</v>
       </c>
-      <c r="H243" s="3">
+      <c r="H243" s="12">
         <v>12</v>
       </c>
-      <c r="I243" s="3">
+      <c r="I243" s="12">
         <v>12</v>
       </c>
-      <c r="J243" s="3">
+      <c r="J243" s="12">
         <v>13</v>
       </c>
       <c r="K243" s="3">
@@ -14721,34 +14763,34 @@
       <c r="R243" s="3"/>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A244" s="3">
+      <c r="A244" s="12">
         <v>243</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="C244" s="3">
+      <c r="C244" s="12">
         <v>40</v>
       </c>
-      <c r="D244" s="3">
+      <c r="D244" s="12">
         <v>1125</v>
       </c>
-      <c r="E244" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F244" s="3" t="s">
+      <c r="E244" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F244" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="G244" s="3">
+      <c r="G244" s="12">
         <v>274</v>
       </c>
-      <c r="H244" s="3">
+      <c r="H244" s="12">
         <v>12</v>
       </c>
-      <c r="I244" s="3">
+      <c r="I244" s="12">
         <v>12</v>
       </c>
-      <c r="J244" s="3">
+      <c r="J244" s="12">
         <v>11</v>
       </c>
       <c r="K244" s="3">
@@ -14775,34 +14817,34 @@
       <c r="R244" s="3"/>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A245" s="3">
+      <c r="A245" s="12">
         <v>244</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C245" s="3">
+      <c r="C245" s="12">
         <v>17</v>
       </c>
-      <c r="D245" s="3">
+      <c r="D245" s="12">
         <v>1126</v>
       </c>
-      <c r="E245" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F245" s="3" t="s">
+      <c r="E245" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F245" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G245" s="3">
+      <c r="G245" s="12">
         <v>418</v>
       </c>
-      <c r="H245" s="3">
+      <c r="H245" s="12">
         <v>26</v>
       </c>
-      <c r="I245" s="3">
+      <c r="I245" s="12">
         <v>23</v>
       </c>
-      <c r="J245" s="3">
+      <c r="J245" s="12">
         <v>13</v>
       </c>
       <c r="K245" s="3">
@@ -14829,34 +14871,34 @@
       <c r="R245" s="3"/>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A246" s="3">
+      <c r="A246" s="12">
         <v>245</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C246" s="3">
+      <c r="C246" s="12">
         <v>39</v>
       </c>
-      <c r="D246" s="3">
+      <c r="D246" s="12">
         <v>1127</v>
       </c>
-      <c r="E246" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F246" s="3" t="s">
+      <c r="E246" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F246" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="G246" s="3">
+      <c r="G246" s="12">
         <v>623</v>
       </c>
-      <c r="H246" s="3">
+      <c r="H246" s="12">
         <v>13</v>
       </c>
-      <c r="I246" s="3">
+      <c r="I246" s="12">
         <v>11</v>
       </c>
-      <c r="J246" s="3">
+      <c r="J246" s="12">
         <v>20</v>
       </c>
       <c r="K246" s="3">
@@ -14883,34 +14925,34 @@
       <c r="R246" s="3"/>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A247" s="3">
+      <c r="A247" s="12">
         <v>246</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="C247" s="3">
+      <c r="C247" s="12">
         <v>24</v>
       </c>
-      <c r="D247" s="3">
+      <c r="D247" s="12">
         <v>1128</v>
       </c>
-      <c r="E247" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F247" s="3" t="s">
+      <c r="E247" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F247" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G247" s="3">
+      <c r="G247" s="12">
         <v>507</v>
       </c>
-      <c r="H247" s="3">
+      <c r="H247" s="12">
         <v>40</v>
       </c>
-      <c r="I247" s="3">
+      <c r="I247" s="12">
         <v>34</v>
       </c>
-      <c r="J247" s="3">
+      <c r="J247" s="12">
         <v>15</v>
       </c>
       <c r="K247" s="3">
@@ -14937,34 +14979,34 @@
       <c r="R247" s="3"/>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A248" s="3">
+      <c r="A248" s="12">
         <v>247</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="C248" s="3">
+      <c r="C248" s="12">
         <v>48</v>
       </c>
-      <c r="D248" s="3">
+      <c r="D248" s="12">
         <v>1223</v>
       </c>
-      <c r="E248" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F248" s="3" t="s">
+      <c r="E248" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F248" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="G248" s="3">
+      <c r="G248" s="12">
         <v>283</v>
       </c>
-      <c r="H248" s="3">
+      <c r="H248" s="12">
         <v>23</v>
       </c>
-      <c r="I248" s="3">
+      <c r="I248" s="12">
         <v>19</v>
       </c>
-      <c r="J248" s="3">
+      <c r="J248" s="12">
         <v>11</v>
       </c>
       <c r="K248" s="3">
@@ -14991,34 +15033,34 @@
       <c r="R248" s="3"/>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A249" s="3">
+      <c r="A249" s="12">
         <v>248</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="C249" s="3">
+      <c r="C249" s="12">
         <v>30</v>
       </c>
-      <c r="D249" s="3">
+      <c r="D249" s="12">
         <v>1224</v>
       </c>
-      <c r="E249" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F249" s="3" t="s">
+      <c r="E249" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F249" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="G249" s="3">
+      <c r="G249" s="12">
         <v>228</v>
       </c>
-      <c r="H249" s="3">
+      <c r="H249" s="12">
         <v>13</v>
       </c>
-      <c r="I249" s="3">
+      <c r="I249" s="12">
         <v>12</v>
       </c>
-      <c r="J249" s="3">
+      <c r="J249" s="12">
         <v>13</v>
       </c>
       <c r="K249" s="3">
@@ -15045,34 +15087,34 @@
       <c r="R249" s="3"/>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A250" s="3">
+      <c r="A250" s="12">
         <v>249</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="C250" s="3">
+      <c r="C250" s="12">
         <v>22</v>
       </c>
-      <c r="D250" s="3">
+      <c r="D250" s="12">
         <v>1225</v>
       </c>
-      <c r="E250" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F250" s="3" t="s">
+      <c r="E250" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F250" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G250" s="3">
+      <c r="G250" s="12">
         <v>633</v>
       </c>
-      <c r="H250" s="3">
-        <v>18</v>
-      </c>
-      <c r="I250" s="3">
+      <c r="H250" s="12">
+        <v>18</v>
+      </c>
+      <c r="I250" s="12">
         <v>15</v>
       </c>
-      <c r="J250" s="3">
+      <c r="J250" s="12">
         <v>22</v>
       </c>
       <c r="K250" s="3">
@@ -15099,34 +15141,34 @@
       <c r="R250" s="3"/>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A251" s="3">
+      <c r="A251" s="12">
         <v>250</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="C251" s="3">
+      <c r="C251" s="12">
         <v>19</v>
       </c>
-      <c r="D251" s="3">
+      <c r="D251" s="12">
         <v>1226</v>
       </c>
-      <c r="E251" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F251" s="3" t="s">
+      <c r="E251" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F251" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G251" s="3">
+      <c r="G251" s="12">
         <v>211</v>
       </c>
-      <c r="H251" s="3">
-        <v>18</v>
-      </c>
-      <c r="I251" s="3">
+      <c r="H251" s="12">
+        <v>18</v>
+      </c>
+      <c r="I251" s="12">
         <v>14</v>
       </c>
-      <c r="J251" s="3">
+      <c r="J251" s="12">
         <v>14</v>
       </c>
       <c r="K251" s="3">
@@ -15153,34 +15195,34 @@
       <c r="R251" s="3"/>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A252" s="3">
+      <c r="A252" s="12">
         <v>251</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C252" s="3">
+      <c r="C252" s="12">
         <v>16</v>
       </c>
-      <c r="D252" s="3">
+      <c r="D252" s="12">
         <v>1227</v>
       </c>
-      <c r="E252" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F252" s="3" t="s">
+      <c r="E252" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F252" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G252" s="3">
+      <c r="G252" s="12">
         <v>456</v>
       </c>
-      <c r="H252" s="3">
+      <c r="H252" s="12">
         <v>27</v>
       </c>
-      <c r="I252" s="3">
+      <c r="I252" s="12">
         <v>25</v>
       </c>
-      <c r="J252" s="3">
+      <c r="J252" s="12">
         <v>12</v>
       </c>
       <c r="K252" s="3">
@@ -15207,34 +15249,34 @@
       <c r="R252" s="3"/>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A253" s="3">
+      <c r="A253" s="12">
         <v>252</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C253" s="3">
+      <c r="C253" s="12">
         <v>15</v>
       </c>
-      <c r="D253" s="3">
+      <c r="D253" s="12">
         <v>1228</v>
       </c>
-      <c r="E253" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F253" s="3" t="s">
+      <c r="E253" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F253" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G253" s="3">
+      <c r="G253" s="12">
         <v>549</v>
       </c>
-      <c r="H253" s="3">
+      <c r="H253" s="12">
         <v>15</v>
       </c>
-      <c r="I253" s="3">
+      <c r="I253" s="12">
         <v>12</v>
       </c>
-      <c r="J253" s="3">
+      <c r="J253" s="12">
         <v>23</v>
       </c>
       <c r="K253" s="3">
@@ -15261,34 +15303,34 @@
       <c r="R253" s="3"/>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A254" s="3">
+      <c r="A254" s="12">
         <v>253</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="C254" s="3">
+      <c r="C254" s="12">
         <v>26</v>
       </c>
-      <c r="D254" s="3">
+      <c r="D254" s="12">
         <v>1323</v>
       </c>
-      <c r="E254" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F254" s="3" t="s">
+      <c r="E254" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F254" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G254" s="3">
+      <c r="G254" s="12">
         <v>202</v>
       </c>
-      <c r="H254" s="3">
+      <c r="H254" s="12">
         <v>10</v>
       </c>
-      <c r="I254" s="3">
+      <c r="I254" s="12">
         <v>9</v>
       </c>
-      <c r="J254" s="3">
+      <c r="J254" s="12">
         <v>7</v>
       </c>
       <c r="K254" s="3">
@@ -15315,34 +15357,34 @@
       <c r="R254" s="3"/>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A255" s="3">
+      <c r="A255" s="12">
         <v>254</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="C255" s="3">
+      <c r="C255" s="12">
         <v>27</v>
       </c>
-      <c r="D255" s="3">
+      <c r="D255" s="12">
         <v>1324</v>
       </c>
-      <c r="E255" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F255" s="3" t="s">
+      <c r="E255" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F255" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G255" s="3">
+      <c r="G255" s="12">
         <v>402</v>
       </c>
-      <c r="H255" s="3">
+      <c r="H255" s="12">
         <v>15</v>
       </c>
-      <c r="I255" s="3">
+      <c r="I255" s="12">
         <v>14</v>
       </c>
-      <c r="J255" s="3">
+      <c r="J255" s="12">
         <v>12</v>
       </c>
       <c r="K255" s="3">
@@ -15369,34 +15411,34 @@
       <c r="R255" s="3"/>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A256" s="3">
+      <c r="A256" s="12">
         <v>255</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C256" s="3">
+      <c r="C256" s="12">
         <v>37</v>
       </c>
-      <c r="D256" s="3">
+      <c r="D256" s="12">
         <v>1325</v>
       </c>
-      <c r="E256" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F256" s="3" t="s">
+      <c r="E256" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F256" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="G256" s="3">
+      <c r="G256" s="12">
         <v>973</v>
       </c>
-      <c r="H256" s="3">
+      <c r="H256" s="12">
         <v>45</v>
       </c>
-      <c r="I256" s="3">
+      <c r="I256" s="12">
         <v>43</v>
       </c>
-      <c r="J256" s="3">
+      <c r="J256" s="12">
         <v>18</v>
       </c>
       <c r="K256" s="3">
@@ -15423,34 +15465,34 @@
       <c r="R256" s="3"/>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A257" s="3">
+      <c r="A257" s="12">
         <v>256</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C257" s="3">
+      <c r="C257" s="12">
         <v>12</v>
       </c>
-      <c r="D257" s="3">
+      <c r="D257" s="12">
         <v>1326</v>
       </c>
-      <c r="E257" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F257" s="3" t="s">
+      <c r="E257" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F257" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G257" s="3">
+      <c r="G257" s="12">
         <v>341</v>
       </c>
-      <c r="H257" s="3">
+      <c r="H257" s="12">
         <v>17</v>
       </c>
-      <c r="I257" s="3">
+      <c r="I257" s="12">
         <v>14</v>
       </c>
-      <c r="J257" s="3">
+      <c r="J257" s="12">
         <v>8</v>
       </c>
       <c r="K257" s="3">
@@ -15477,34 +15519,34 @@
       <c r="R257" s="3"/>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A258" s="3">
+      <c r="A258" s="12">
         <v>257</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C258" s="12">
         <v>41</v>
       </c>
-      <c r="D258" s="3">
+      <c r="D258" s="12">
         <v>1327</v>
       </c>
-      <c r="E258" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F258" s="3" t="s">
+      <c r="E258" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F258" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="G258" s="3">
+      <c r="G258" s="12">
         <v>109</v>
       </c>
-      <c r="H258" s="3">
+      <c r="H258" s="12">
         <v>4</v>
       </c>
-      <c r="I258" s="3">
+      <c r="I258" s="12">
         <v>3</v>
       </c>
-      <c r="J258" s="3">
+      <c r="J258" s="12">
         <v>3</v>
       </c>
       <c r="K258" s="3">
@@ -15531,34 +15573,34 @@
       <c r="R258" s="3"/>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A259" s="3">
+      <c r="A259" s="12">
         <v>258</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C259" s="3">
+      <c r="C259" s="12">
         <v>38</v>
       </c>
-      <c r="D259" s="3">
+      <c r="D259" s="12">
         <v>1328</v>
       </c>
-      <c r="E259" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F259" s="3" t="s">
+      <c r="E259" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F259" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="G259" s="3">
+      <c r="G259" s="12">
         <v>674</v>
       </c>
-      <c r="H259" s="3">
+      <c r="H259" s="12">
         <v>17</v>
       </c>
-      <c r="I259" s="3">
+      <c r="I259" s="12">
         <v>15</v>
       </c>
-      <c r="J259" s="3">
+      <c r="J259" s="12">
         <v>20</v>
       </c>
       <c r="K259" s="3">
@@ -15585,34 +15627,34 @@
       <c r="R259" s="3"/>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A260" s="3">
+      <c r="A260" s="12">
         <v>259</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="C260" s="3">
+      <c r="C260" s="12">
         <v>8</v>
       </c>
-      <c r="D260" s="3">
+      <c r="D260" s="12">
         <v>1423</v>
       </c>
-      <c r="E260" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F260" s="3" t="s">
+      <c r="E260" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F260" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G260" s="3">
+      <c r="G260" s="12">
         <v>352</v>
       </c>
-      <c r="H260" s="3">
+      <c r="H260" s="12">
         <v>8</v>
       </c>
-      <c r="I260" s="3">
+      <c r="I260" s="12">
         <v>8</v>
       </c>
-      <c r="J260" s="3">
+      <c r="J260" s="12">
         <v>7</v>
       </c>
       <c r="K260" s="3">
@@ -15639,34 +15681,34 @@
       <c r="R260" s="3"/>
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A261" s="3">
+      <c r="A261" s="12">
         <v>260</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C261" s="12">
         <v>21</v>
       </c>
-      <c r="D261" s="3">
+      <c r="D261" s="12">
         <v>1424</v>
       </c>
-      <c r="E261" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F261" s="3" t="s">
+      <c r="E261" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F261" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G261" s="3">
+      <c r="G261" s="12">
         <v>442</v>
       </c>
-      <c r="H261" s="3">
+      <c r="H261" s="12">
         <v>28</v>
       </c>
-      <c r="I261" s="3">
+      <c r="I261" s="12">
         <v>24</v>
       </c>
-      <c r="J261" s="3">
+      <c r="J261" s="12">
         <v>10</v>
       </c>
       <c r="K261" s="3">
@@ -15693,34 +15735,34 @@
       <c r="R261" s="3"/>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A262" s="3">
+      <c r="A262" s="12">
         <v>261</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C262" s="3">
+      <c r="C262" s="12">
         <v>31</v>
       </c>
-      <c r="D262" s="3">
+      <c r="D262" s="12">
         <v>1425</v>
       </c>
-      <c r="E262" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F262" s="3" t="s">
+      <c r="E262" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F262" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="G262" s="3">
+      <c r="G262" s="12">
         <v>627</v>
       </c>
-      <c r="H262" s="3">
+      <c r="H262" s="12">
         <v>26</v>
       </c>
-      <c r="I262" s="3">
+      <c r="I262" s="12">
         <v>23</v>
       </c>
-      <c r="J262" s="3">
+      <c r="J262" s="12">
         <v>16</v>
       </c>
       <c r="K262" s="3">
@@ -15747,34 +15789,34 @@
       <c r="R262" s="3"/>
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A263" s="3">
+      <c r="A263" s="12">
         <v>262</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="C263" s="3">
+      <c r="C263" s="12">
         <v>6</v>
       </c>
-      <c r="D263" s="3">
+      <c r="D263" s="12">
         <v>1426</v>
       </c>
-      <c r="E263" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F263" s="3" t="s">
+      <c r="E263" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F263" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G263" s="3">
+      <c r="G263" s="12">
         <v>363</v>
       </c>
-      <c r="H263" s="3">
+      <c r="H263" s="12">
         <v>19</v>
       </c>
-      <c r="I263" s="3">
+      <c r="I263" s="12">
         <v>19</v>
       </c>
-      <c r="J263" s="3">
+      <c r="J263" s="12">
         <v>7</v>
       </c>
       <c r="K263" s="3">
@@ -15801,34 +15843,34 @@
       <c r="R263" s="3"/>
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A264" s="3">
+      <c r="A264" s="12">
         <v>263</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C264" s="3">
+      <c r="C264" s="12">
         <v>44</v>
       </c>
-      <c r="D264" s="3">
+      <c r="D264" s="12">
         <v>1427</v>
       </c>
-      <c r="E264" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F264" s="3" t="s">
+      <c r="E264" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F264" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G264" s="3">
+      <c r="G264" s="12">
         <v>754</v>
       </c>
-      <c r="H264" s="3">
+      <c r="H264" s="12">
         <v>5</v>
       </c>
-      <c r="I264" s="3">
+      <c r="I264" s="12">
         <v>3</v>
       </c>
-      <c r="J264" s="3">
+      <c r="J264" s="12">
         <v>6</v>
       </c>
       <c r="K264" s="3">
@@ -15855,34 +15897,34 @@
       <c r="R264" s="3"/>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A265" s="3">
+      <c r="A265" s="12">
         <v>264</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="C265" s="3">
+      <c r="C265" s="12">
         <v>33</v>
       </c>
-      <c r="D265" s="3">
+      <c r="D265" s="12">
         <v>1428</v>
       </c>
-      <c r="E265" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F265" s="3" t="s">
+      <c r="E265" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F265" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="G265" s="3">
+      <c r="G265" s="12">
         <v>413</v>
       </c>
-      <c r="H265" s="3">
+      <c r="H265" s="12">
         <v>15</v>
       </c>
-      <c r="I265" s="3">
+      <c r="I265" s="12">
         <v>13</v>
       </c>
-      <c r="J265" s="3">
+      <c r="J265" s="12">
         <v>9</v>
       </c>
       <c r="K265" s="3">
@@ -15909,34 +15951,34 @@
       <c r="R265" s="3"/>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A266" s="3">
+      <c r="A266" s="12">
         <v>265</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C266" s="3">
+      <c r="C266" s="12">
         <v>45</v>
       </c>
-      <c r="D266" s="3">
+      <c r="D266" s="12">
         <v>1523</v>
       </c>
-      <c r="E266" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F266" s="3" t="s">
+      <c r="E266" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F266" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="G266" s="3">
+      <c r="G266" s="12">
         <v>810</v>
       </c>
-      <c r="H266" s="3">
+      <c r="H266" s="12">
         <v>45</v>
       </c>
-      <c r="I266" s="3">
+      <c r="I266" s="12">
         <v>43</v>
       </c>
-      <c r="J266" s="3">
+      <c r="J266" s="12">
         <v>14</v>
       </c>
       <c r="K266" s="3">
@@ -15963,34 +16005,34 @@
       <c r="R266" s="3"/>
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A267" s="3">
+      <c r="A267" s="12">
         <v>266</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="C267" s="3">
+      <c r="C267" s="12">
         <v>25</v>
       </c>
-      <c r="D267" s="3">
+      <c r="D267" s="12">
         <v>1524</v>
       </c>
-      <c r="E267" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F267" s="3" t="s">
+      <c r="E267" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F267" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G267" s="3">
+      <c r="G267" s="12">
         <v>469</v>
       </c>
-      <c r="H267" s="3">
+      <c r="H267" s="12">
         <v>8</v>
       </c>
-      <c r="I267" s="3">
+      <c r="I267" s="12">
         <v>6</v>
       </c>
-      <c r="J267" s="3">
+      <c r="J267" s="12">
         <v>16</v>
       </c>
       <c r="K267" s="3">
@@ -16017,34 +16059,34 @@
       <c r="R267" s="3"/>
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A268" s="3">
+      <c r="A268" s="12">
         <v>267</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C268" s="3">
+      <c r="C268" s="12">
         <v>29</v>
       </c>
-      <c r="D268" s="3">
+      <c r="D268" s="12">
         <v>1525</v>
       </c>
-      <c r="E268" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F268" s="3" t="s">
+      <c r="E268" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F268" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G268" s="3">
+      <c r="G268" s="12">
         <v>47</v>
       </c>
-      <c r="H268" s="3">
+      <c r="H268" s="12">
         <v>3</v>
       </c>
-      <c r="I268" s="3">
+      <c r="I268" s="12">
         <v>2</v>
       </c>
-      <c r="J268" s="3">
+      <c r="J268" s="12">
         <v>1</v>
       </c>
       <c r="K268" s="3">
@@ -16071,34 +16113,34 @@
       <c r="R268" s="3"/>
     </row>
     <row r="269" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A269" s="3">
+      <c r="A269" s="12">
         <v>268</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C269" s="3">
+      <c r="C269" s="12">
         <v>4</v>
       </c>
-      <c r="D269" s="3">
+      <c r="D269" s="12">
         <v>1526</v>
       </c>
-      <c r="E269" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F269" s="3" t="s">
+      <c r="E269" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F269" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="G269" s="3">
+      <c r="G269" s="12">
         <v>397</v>
       </c>
-      <c r="H269" s="3">
+      <c r="H269" s="12">
         <v>27</v>
       </c>
-      <c r="I269" s="3">
+      <c r="I269" s="12">
         <v>22</v>
       </c>
-      <c r="J269" s="3">
+      <c r="J269" s="12">
         <v>10</v>
       </c>
       <c r="K269" s="3">
@@ -16125,34 +16167,34 @@
       <c r="R269" s="3"/>
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A270" s="3">
+      <c r="A270" s="12">
         <v>269</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="C270" s="3">
+      <c r="C270" s="12">
         <v>3</v>
       </c>
-      <c r="D270" s="3">
+      <c r="D270" s="12">
         <v>1527</v>
       </c>
-      <c r="E270" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F270" s="3" t="s">
+      <c r="E270" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F270" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G270" s="3">
+      <c r="G270" s="12">
         <v>440</v>
       </c>
-      <c r="H270" s="3">
+      <c r="H270" s="12">
         <v>14</v>
       </c>
-      <c r="I270" s="3">
+      <c r="I270" s="12">
         <v>13</v>
       </c>
-      <c r="J270" s="3">
+      <c r="J270" s="12">
         <v>13</v>
       </c>
       <c r="K270" s="3">
@@ -16179,34 +16221,34 @@
       <c r="R270" s="3"/>
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A271" s="3">
+      <c r="A271" s="12">
         <v>270</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C271" s="3">
+      <c r="C271" s="12">
         <v>47</v>
       </c>
-      <c r="D271" s="3">
+      <c r="D271" s="12">
         <v>1528</v>
       </c>
-      <c r="E271" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F271" s="3" t="s">
+      <c r="E271" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F271" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="G271" s="3">
+      <c r="G271" s="12">
         <v>760</v>
       </c>
-      <c r="H271" s="3">
+      <c r="H271" s="12">
         <v>75</v>
       </c>
-      <c r="I271" s="3">
+      <c r="I271" s="12">
         <v>70</v>
       </c>
-      <c r="J271" s="3">
+      <c r="J271" s="12">
         <v>13</v>
       </c>
       <c r="K271" s="3">
@@ -16233,34 +16275,34 @@
       <c r="R271" s="3"/>
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A272" s="3">
+      <c r="A272" s="12">
         <v>271</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C272" s="3">
+      <c r="C272" s="12">
         <v>23</v>
       </c>
-      <c r="D272" s="3">
+      <c r="D272" s="12">
         <v>1623</v>
       </c>
-      <c r="E272" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F272" s="3" t="s">
+      <c r="E272" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F272" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G272" s="3">
+      <c r="G272" s="12">
         <v>418</v>
       </c>
-      <c r="H272" s="3">
+      <c r="H272" s="12">
         <v>35</v>
       </c>
-      <c r="I272" s="3">
+      <c r="I272" s="12">
         <v>33</v>
       </c>
-      <c r="J272" s="3">
+      <c r="J272" s="12">
         <v>8</v>
       </c>
       <c r="K272" s="3">
@@ -16287,34 +16329,34 @@
       <c r="R272" s="3"/>
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A273" s="3">
+      <c r="A273" s="12">
         <v>272</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C273" s="3">
+      <c r="C273" s="12">
         <v>7</v>
       </c>
-      <c r="D273" s="3">
+      <c r="D273" s="12">
         <v>1624</v>
       </c>
-      <c r="E273" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F273" s="3" t="s">
+      <c r="E273" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F273" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G273" s="3">
+      <c r="G273" s="12">
         <v>624</v>
       </c>
-      <c r="H273" s="3">
+      <c r="H273" s="12">
         <v>9</v>
       </c>
-      <c r="I273" s="3">
+      <c r="I273" s="12">
         <v>8</v>
       </c>
-      <c r="J273" s="3">
+      <c r="J273" s="12">
         <v>20</v>
       </c>
       <c r="K273" s="3">
@@ -16341,34 +16383,34 @@
       <c r="R273" s="3"/>
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A274" s="3">
+      <c r="A274" s="12">
         <v>273</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="C274" s="3">
+      <c r="C274" s="12">
         <v>2</v>
       </c>
-      <c r="D274" s="3">
+      <c r="D274" s="12">
         <v>1625</v>
       </c>
-      <c r="E274" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F274" s="3" t="s">
+      <c r="E274" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F274" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G274" s="3">
+      <c r="G274" s="12">
         <v>290</v>
       </c>
-      <c r="H274" s="3">
+      <c r="H274" s="12">
         <v>11</v>
       </c>
-      <c r="I274" s="3">
+      <c r="I274" s="12">
         <v>8</v>
       </c>
-      <c r="J274" s="3">
+      <c r="J274" s="12">
         <v>5</v>
       </c>
       <c r="K274" s="3">
@@ -16395,34 +16437,34 @@
       <c r="R274" s="3"/>
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A275" s="3">
+      <c r="A275" s="12">
         <v>274</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C275" s="3">
+      <c r="C275" s="12">
         <v>10</v>
       </c>
-      <c r="D275" s="3">
+      <c r="D275" s="12">
         <v>1626</v>
       </c>
-      <c r="E275" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F275" s="3" t="s">
+      <c r="E275" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F275" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G275" s="3">
+      <c r="G275" s="12">
         <v>751</v>
       </c>
-      <c r="H275" s="3">
+      <c r="H275" s="12">
         <v>71</v>
       </c>
-      <c r="I275" s="3">
+      <c r="I275" s="12">
         <v>70</v>
       </c>
-      <c r="J275" s="3">
+      <c r="J275" s="12">
         <v>10</v>
       </c>
       <c r="K275" s="3">
@@ -16449,34 +16491,34 @@
       <c r="R275" s="3"/>
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A276" s="3">
+      <c r="A276" s="12">
         <v>275</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="C276" s="3">
+      <c r="C276" s="12">
         <v>28</v>
       </c>
-      <c r="D276" s="3">
+      <c r="D276" s="12">
         <v>1627</v>
       </c>
-      <c r="E276" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F276" s="3" t="s">
+      <c r="E276" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F276" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G276" s="3">
+      <c r="G276" s="12">
         <v>465</v>
       </c>
-      <c r="H276" s="3">
+      <c r="H276" s="12">
         <v>27</v>
       </c>
-      <c r="I276" s="3">
+      <c r="I276" s="12">
         <v>24</v>
       </c>
-      <c r="J276" s="3">
+      <c r="J276" s="12">
         <v>22</v>
       </c>
       <c r="K276" s="3">
@@ -16503,34 +16545,34 @@
       <c r="R276" s="3"/>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A277" s="3">
+      <c r="A277" s="12">
         <v>276</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C277" s="3">
+      <c r="C277" s="12">
         <v>32</v>
       </c>
-      <c r="D277" s="3">
+      <c r="D277" s="12">
         <v>1628</v>
       </c>
-      <c r="E277" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F277" s="3" t="s">
+      <c r="E277" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F277" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G277" s="3">
+      <c r="G277" s="12">
         <v>1221</v>
       </c>
-      <c r="H277" s="3">
+      <c r="H277" s="12">
         <v>25</v>
       </c>
-      <c r="I277" s="3">
+      <c r="I277" s="12">
         <v>23</v>
       </c>
-      <c r="J277" s="3">
+      <c r="J277" s="12">
         <v>28</v>
       </c>
       <c r="K277" s="3">
@@ -16557,34 +16599,34 @@
       <c r="R277" s="3"/>
     </row>
     <row r="278" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A278" s="3">
+      <c r="A278" s="12">
         <v>277</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="C278" s="3">
+      <c r="C278" s="12">
         <v>1</v>
       </c>
-      <c r="D278" s="3">
+      <c r="D278" s="12">
         <v>1723</v>
       </c>
-      <c r="E278" s="3" t="s">
+      <c r="E278" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="F278" s="3" t="s">
+      <c r="F278" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G278" s="3">
+      <c r="G278" s="12">
         <v>326</v>
       </c>
-      <c r="H278" s="3">
+      <c r="H278" s="12">
         <v>40</v>
       </c>
-      <c r="I278" s="3">
+      <c r="I278" s="12">
         <v>36</v>
       </c>
-      <c r="J278" s="3">
+      <c r="J278" s="12">
         <v>14</v>
       </c>
       <c r="K278" s="3">
@@ -16611,34 +16653,34 @@
       <c r="R278" s="3"/>
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A279" s="3">
+      <c r="A279" s="12">
         <v>278</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C279" s="3">
+      <c r="C279" s="12">
         <v>35</v>
       </c>
-      <c r="D279" s="3">
+      <c r="D279" s="12">
         <v>1724</v>
       </c>
-      <c r="E279" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F279" s="3" t="s">
+      <c r="E279" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F279" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="G279" s="3">
+      <c r="G279" s="12">
         <v>39</v>
       </c>
-      <c r="H279" s="3">
+      <c r="H279" s="12">
         <v>3</v>
       </c>
-      <c r="I279" s="3">
+      <c r="I279" s="12">
         <v>2</v>
       </c>
-      <c r="J279" s="3">
+      <c r="J279" s="12">
         <v>3</v>
       </c>
       <c r="K279" s="3">
@@ -16665,34 +16707,34 @@
       <c r="R279" s="3"/>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A280" s="3">
+      <c r="A280" s="12">
         <v>279</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C280" s="3">
-        <v>18</v>
-      </c>
-      <c r="D280" s="3">
+      <c r="C280" s="12">
+        <v>18</v>
+      </c>
+      <c r="D280" s="12">
         <v>1725</v>
       </c>
-      <c r="E280" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F280" s="3" t="s">
+      <c r="E280" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F280" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G280" s="3">
+      <c r="G280" s="12">
         <v>615</v>
       </c>
-      <c r="H280" s="3">
+      <c r="H280" s="12">
         <v>10</v>
       </c>
-      <c r="I280" s="3">
+      <c r="I280" s="12">
         <v>7</v>
       </c>
-      <c r="J280" s="3">
+      <c r="J280" s="12">
         <v>14</v>
       </c>
       <c r="K280" s="3">
@@ -16719,34 +16761,34 @@
       <c r="R280" s="3"/>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A281" s="3">
+      <c r="A281" s="12">
         <v>280</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="C281" s="3">
+      <c r="C281" s="12">
         <v>11</v>
       </c>
-      <c r="D281" s="3">
+      <c r="D281" s="12">
         <v>1726</v>
       </c>
-      <c r="E281" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F281" s="3" t="s">
+      <c r="E281" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F281" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G281" s="3">
+      <c r="G281" s="12">
         <v>449</v>
       </c>
-      <c r="H281" s="3">
+      <c r="H281" s="12">
         <v>26</v>
       </c>
-      <c r="I281" s="3">
+      <c r="I281" s="12">
         <v>20</v>
       </c>
-      <c r="J281" s="3">
+      <c r="J281" s="12">
         <v>9</v>
       </c>
       <c r="K281" s="3">
@@ -16773,34 +16815,34 @@
       <c r="R281" s="3"/>
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A282" s="3">
+      <c r="A282" s="12">
         <v>281</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C282" s="3">
+      <c r="C282" s="12">
         <v>20</v>
       </c>
-      <c r="D282" s="3">
+      <c r="D282" s="12">
         <v>1727</v>
       </c>
-      <c r="E282" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F282" s="3" t="s">
+      <c r="E282" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F282" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G282" s="3">
+      <c r="G282" s="12">
         <v>507</v>
       </c>
-      <c r="H282" s="3">
+      <c r="H282" s="12">
         <v>33</v>
       </c>
-      <c r="I282" s="3">
+      <c r="I282" s="12">
         <v>30</v>
       </c>
-      <c r="J282" s="3">
+      <c r="J282" s="12">
         <v>15</v>
       </c>
       <c r="K282" s="3">
@@ -16827,34 +16869,34 @@
       <c r="R282" s="3"/>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A283" s="3">
+      <c r="A283" s="12">
         <v>282</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="C283" s="3">
+      <c r="C283" s="12">
         <v>43</v>
       </c>
-      <c r="D283" s="3">
+      <c r="D283" s="12">
         <v>1728</v>
       </c>
-      <c r="E283" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F283" s="3" t="s">
+      <c r="E283" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F283" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="G283" s="3">
+      <c r="G283" s="12">
         <v>329</v>
       </c>
-      <c r="H283" s="3">
+      <c r="H283" s="12">
         <v>8</v>
       </c>
-      <c r="I283" s="3">
+      <c r="I283" s="12">
         <v>8</v>
       </c>
-      <c r="J283" s="3">
+      <c r="J283" s="12">
         <v>5</v>
       </c>
       <c r="K283" s="3">
@@ -16881,34 +16923,34 @@
       <c r="R283" s="3"/>
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A284" s="3">
+      <c r="A284" s="12">
         <v>283</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C284" s="3">
+      <c r="C284" s="12">
         <v>34</v>
       </c>
-      <c r="D284" s="3">
+      <c r="D284" s="12">
         <v>1823</v>
       </c>
-      <c r="E284" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F284" s="3" t="s">
+      <c r="E284" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F284" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="G284" s="3">
+      <c r="G284" s="12">
         <v>1228</v>
       </c>
-      <c r="H284" s="3">
+      <c r="H284" s="12">
         <v>161</v>
       </c>
-      <c r="I284" s="3">
+      <c r="I284" s="12">
         <v>159</v>
       </c>
-      <c r="J284" s="3">
+      <c r="J284" s="12">
         <v>29</v>
       </c>
       <c r="K284" s="3">
@@ -16935,34 +16977,34 @@
       <c r="R284" s="3"/>
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A285" s="3">
+      <c r="A285" s="12">
         <v>284</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C285" s="3">
+      <c r="C285" s="12">
         <v>14</v>
       </c>
-      <c r="D285" s="3">
+      <c r="D285" s="12">
         <v>1824</v>
       </c>
-      <c r="E285" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F285" s="3" t="s">
+      <c r="E285" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F285" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G285" s="3">
+      <c r="G285" s="12">
         <v>339</v>
       </c>
-      <c r="H285" s="3">
+      <c r="H285" s="12">
         <v>8</v>
       </c>
-      <c r="I285" s="3">
+      <c r="I285" s="12">
         <v>8</v>
       </c>
-      <c r="J285" s="3">
+      <c r="J285" s="12">
         <v>8</v>
       </c>
       <c r="K285" s="3">
@@ -16989,34 +17031,34 @@
       <c r="R285" s="3"/>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A286" s="3">
+      <c r="A286" s="12">
         <v>285</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C286" s="3">
+      <c r="C286" s="12">
         <v>36</v>
       </c>
-      <c r="D286" s="3">
+      <c r="D286" s="12">
         <v>1825</v>
       </c>
-      <c r="E286" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F286" s="3" t="s">
+      <c r="E286" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F286" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G286" s="3">
+      <c r="G286" s="12">
         <v>243</v>
       </c>
-      <c r="H286" s="3">
+      <c r="H286" s="12">
         <v>16</v>
       </c>
-      <c r="I286" s="3">
+      <c r="I286" s="12">
         <v>14</v>
       </c>
-      <c r="J286" s="3">
+      <c r="J286" s="12">
         <v>4</v>
       </c>
       <c r="K286" s="3">
@@ -17043,34 +17085,34 @@
       <c r="R286" s="3"/>
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A287" s="3">
+      <c r="A287" s="12">
         <v>286</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="C287" s="3">
+      <c r="C287" s="12">
         <v>9</v>
       </c>
-      <c r="D287" s="3">
+      <c r="D287" s="12">
         <v>1826</v>
       </c>
-      <c r="E287" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F287" s="3" t="s">
+      <c r="E287" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F287" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G287" s="3">
+      <c r="G287" s="12">
         <v>1780</v>
       </c>
-      <c r="H287" s="3">
+      <c r="H287" s="12">
         <v>81</v>
       </c>
-      <c r="I287" s="3">
+      <c r="I287" s="12">
         <v>76</v>
       </c>
-      <c r="J287" s="3">
+      <c r="J287" s="12">
         <v>3</v>
       </c>
       <c r="K287" s="3">
@@ -17097,34 +17139,34 @@
       <c r="R287" s="3"/>
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A288" s="3">
+      <c r="A288" s="12">
         <v>287</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C288" s="3">
+      <c r="C288" s="12">
         <v>13</v>
       </c>
-      <c r="D288" s="3">
+      <c r="D288" s="12">
         <v>1827</v>
       </c>
-      <c r="E288" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F288" s="3" t="s">
+      <c r="E288" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F288" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G288" s="3">
+      <c r="G288" s="12">
         <v>1034</v>
       </c>
-      <c r="H288" s="3">
+      <c r="H288" s="12">
         <v>68</v>
       </c>
-      <c r="I288" s="3">
+      <c r="I288" s="12">
         <v>64</v>
       </c>
-      <c r="J288" s="3">
+      <c r="J288" s="12">
         <v>14</v>
       </c>
       <c r="K288" s="3">
@@ -17151,34 +17193,34 @@
       <c r="R288" s="3"/>
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A289" s="3">
+      <c r="A289" s="12">
         <v>288</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C289" s="3">
+      <c r="C289" s="12">
         <v>46</v>
       </c>
-      <c r="D289" s="3">
+      <c r="D289" s="12">
         <v>1828</v>
       </c>
-      <c r="E289" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F289" s="3" t="s">
+      <c r="E289" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F289" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="G289" s="3">
+      <c r="G289" s="12">
         <v>754</v>
       </c>
-      <c r="H289" s="3">
+      <c r="H289" s="12">
         <v>17</v>
       </c>
-      <c r="I289" s="3">
+      <c r="I289" s="12">
         <v>16</v>
       </c>
-      <c r="J289" s="3">
+      <c r="J289" s="12">
         <v>18</v>
       </c>
       <c r="K289" s="3">
@@ -17229,7 +17271,7 @@
       <c r="D296" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E296" s="4" t="s">
+      <c r="E296" s="10" t="s">
         <v>363</v>
       </c>
     </row>
@@ -17239,6 +17281,74 @@
       </c>
       <c r="E297" s="3" t="s">
         <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F30739-65B3-2E45-BA19-B368DDC89064}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
